--- a/OrangHRMDetails.xlsx
+++ b/OrangHRMDetails.xlsx
@@ -9,41 +9,1241 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="410">
   <si>
     <t>abc</t>
   </si>
   <si>
-    <t>abc123</t>
-  </si>
-  <si>
     <t>Thor</t>
   </si>
   <si>
-    <t>odinson12</t>
-  </si>
-  <si>
     <t>Kratos</t>
   </si>
   <si>
-    <t>zeus123</t>
-  </si>
-  <si>
     <t>Mimir</t>
   </si>
   <si>
-    <t>mayan12</t>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>soyindication</t>
+  </si>
+  <si>
+    <t>covettraffic</t>
+  </si>
+  <si>
+    <t>wisetrampoline</t>
+  </si>
+  <si>
+    <t>lightsavanna</t>
+  </si>
+  <si>
+    <t>relievedcumin</t>
+  </si>
+  <si>
+    <t>realtorbee</t>
+  </si>
+  <si>
+    <t>lacrossedean</t>
+  </si>
+  <si>
+    <t>adoredreally</t>
+  </si>
+  <si>
+    <t>numberlesshealthy</t>
+  </si>
+  <si>
+    <t>relevantrapid</t>
+  </si>
+  <si>
+    <t>superbtranship</t>
+  </si>
+  <si>
+    <t>everydaynotable</t>
+  </si>
+  <si>
+    <t>outgoingabsent</t>
+  </si>
+  <si>
+    <t>wastescurse</t>
+  </si>
+  <si>
+    <t>slightlynearby</t>
+  </si>
+  <si>
+    <t>buttondownvoid</t>
+  </si>
+  <si>
+    <t>lethaltroupe</t>
+  </si>
+  <si>
+    <t>fardageangel</t>
+  </si>
+  <si>
+    <t>respectedregional</t>
+  </si>
+  <si>
+    <t>helplessstock</t>
+  </si>
+  <si>
+    <t>chestnutsfir</t>
+  </si>
+  <si>
+    <t>tundraformal</t>
+  </si>
+  <si>
+    <t>kerchingintolerant</t>
+  </si>
+  <si>
+    <t>salarymerchant</t>
+  </si>
+  <si>
+    <t>keyboardwomen</t>
+  </si>
+  <si>
+    <t>lawcross</t>
+  </si>
+  <si>
+    <t>grizzleddopey</t>
+  </si>
+  <si>
+    <t>bocceplink</t>
+  </si>
+  <si>
+    <t>buyerexxon</t>
+  </si>
+  <si>
+    <t>boregovern</t>
+  </si>
+  <si>
+    <t>discoverysatellite</t>
+  </si>
+  <si>
+    <t>dazzlingabject</t>
+  </si>
+  <si>
+    <t>washpeppermint</t>
+  </si>
+  <si>
+    <t>situationaccountant</t>
+  </si>
+  <si>
+    <t>fruitfulfrustrated</t>
+  </si>
+  <si>
+    <t>clayhover</t>
+  </si>
+  <si>
+    <t>silksledding</t>
+  </si>
+  <si>
+    <t>directorannoy</t>
+  </si>
+  <si>
+    <t>surmisepuffy</t>
+  </si>
+  <si>
+    <t>journalistplaintive</t>
+  </si>
+  <si>
+    <t>clashtomatoes</t>
+  </si>
+  <si>
+    <t>confidentpretty</t>
+  </si>
+  <si>
+    <t>evaluatecry</t>
+  </si>
+  <si>
+    <t>crispstamp</t>
+  </si>
+  <si>
+    <t>additionalchowder</t>
+  </si>
+  <si>
+    <t>troupetragedy</t>
+  </si>
+  <si>
+    <t>disabilitydigress</t>
+  </si>
+  <si>
+    <t>colleaguerepay</t>
+  </si>
+  <si>
+    <t>chideconsent</t>
+  </si>
+  <si>
+    <t>onerouswilling</t>
+  </si>
+  <si>
+    <t>ibexedeficient</t>
+  </si>
+  <si>
+    <t>motherfactor</t>
+  </si>
+  <si>
+    <t>stylefountain</t>
+  </si>
+  <si>
+    <t>visibilitypretend</t>
+  </si>
+  <si>
+    <t>tapersnail</t>
+  </si>
+  <si>
+    <t>pityingleaves</t>
+  </si>
+  <si>
+    <t>folkhissing</t>
+  </si>
+  <si>
+    <t>paintbrushtrapped</t>
+  </si>
+  <si>
+    <t>junkieextraneous</t>
+  </si>
+  <si>
+    <t>fanaticaltherapy</t>
+  </si>
+  <si>
+    <t>dogwatchlutz</t>
+  </si>
+  <si>
+    <t>fretfuloatmeal</t>
+  </si>
+  <si>
+    <t>vhsregard</t>
+  </si>
+  <si>
+    <t>slimeballstylish</t>
+  </si>
+  <si>
+    <t>cakerecently</t>
+  </si>
+  <si>
+    <t>veinscheat</t>
+  </si>
+  <si>
+    <t>marbledconcede</t>
+  </si>
+  <si>
+    <t>chemicalsailboat</t>
+  </si>
+  <si>
+    <t>willowcurlew</t>
+  </si>
+  <si>
+    <t>kneelyuletide</t>
+  </si>
+  <si>
+    <t>vanquishboo</t>
+  </si>
+  <si>
+    <t>collectionsesame</t>
+  </si>
+  <si>
+    <t>massiveguttural</t>
+  </si>
+  <si>
+    <t>evilprompt</t>
+  </si>
+  <si>
+    <t>minecraftminstrel</t>
+  </si>
+  <si>
+    <t>recklessmacabre</t>
+  </si>
+  <si>
+    <t>thoroughchristian</t>
+  </si>
+  <si>
+    <t>ulnasettlement</t>
+  </si>
+  <si>
+    <t>perceiveimprobable</t>
+  </si>
+  <si>
+    <t>snickeradorable</t>
+  </si>
+  <si>
+    <t>dishcareful</t>
+  </si>
+  <si>
+    <t>dripsympathy</t>
+  </si>
+  <si>
+    <t>screechingtoothsome</t>
+  </si>
+  <si>
+    <t>factoryamong</t>
+  </si>
+  <si>
+    <t>shortsuspenders</t>
+  </si>
+  <si>
+    <t>kefirexuberant</t>
+  </si>
+  <si>
+    <t>megadye</t>
+  </si>
+  <si>
+    <t>europeanblock</t>
+  </si>
+  <si>
+    <t>chamomilestoic</t>
+  </si>
+  <si>
+    <t>inborncurrant</t>
+  </si>
+  <si>
+    <t>whyjackstaff</t>
+  </si>
+  <si>
+    <t>ibmjungle</t>
+  </si>
+  <si>
+    <t>briskswindler</t>
+  </si>
+  <si>
+    <t>gulppermanent</t>
+  </si>
+  <si>
+    <t>womanlybuffalo</t>
+  </si>
+  <si>
+    <t>diversevalid</t>
+  </si>
+  <si>
+    <t>fascinatedcentral</t>
+  </si>
+  <si>
+    <t>energyrespect</t>
+  </si>
+  <si>
+    <t>maremotion</t>
+  </si>
+  <si>
+    <t>leaveshortbread</t>
+  </si>
+  <si>
+    <t>buzzardchalk</t>
+  </si>
+  <si>
+    <t>articlehall</t>
+  </si>
+  <si>
+    <t>chivetrident</t>
+  </si>
+  <si>
+    <t>thwackzabra</t>
+  </si>
+  <si>
+    <t>mirrorclash</t>
+  </si>
+  <si>
+    <t>obligationspending</t>
+  </si>
+  <si>
+    <t>jerkpurse</t>
+  </si>
+  <si>
+    <t>mournerhoglin</t>
+  </si>
+  <si>
+    <t>circularleap</t>
+  </si>
+  <si>
+    <t>sandstoneimpatience</t>
+  </si>
+  <si>
+    <t>probablydecide</t>
+  </si>
+  <si>
+    <t>darestair</t>
+  </si>
+  <si>
+    <t>teasever</t>
+  </si>
+  <si>
+    <t>boisterousquality</t>
+  </si>
+  <si>
+    <t>beetroottroop</t>
+  </si>
+  <si>
+    <t>foreignchicken</t>
+  </si>
+  <si>
+    <t>communitypanty</t>
+  </si>
+  <si>
+    <t>illusiongirl</t>
+  </si>
+  <si>
+    <t>koshershoemaker</t>
+  </si>
+  <si>
+    <t>godstupendous</t>
+  </si>
+  <si>
+    <t>ablazepaddle</t>
+  </si>
+  <si>
+    <t>athleticsideal</t>
+  </si>
+  <si>
+    <t>strategylollipop</t>
+  </si>
+  <si>
+    <t>victimfunctional</t>
+  </si>
+  <si>
+    <t>tulipfat</t>
+  </si>
+  <si>
+    <t>diamondglass</t>
+  </si>
+  <si>
+    <t>surfeityesterday</t>
+  </si>
+  <si>
+    <t>jodhpursbutt</t>
+  </si>
+  <si>
+    <t>helicopterdefinite</t>
+  </si>
+  <si>
+    <t>reverencesouth</t>
+  </si>
+  <si>
+    <t>amazonpromise</t>
+  </si>
+  <si>
+    <t>barredslovenly</t>
+  </si>
+  <si>
+    <t>dailytrek</t>
+  </si>
+  <si>
+    <t>wakeapple</t>
+  </si>
+  <si>
+    <t>maderetire</t>
+  </si>
+  <si>
+    <t>margindare</t>
+  </si>
+  <si>
+    <t>accidentalgruesome</t>
+  </si>
+  <si>
+    <t>pullovergrouch</t>
+  </si>
+  <si>
+    <t>pestergrumpy</t>
+  </si>
+  <si>
+    <t>crownscud</t>
+  </si>
+  <si>
+    <t>centuryleave</t>
+  </si>
+  <si>
+    <t>miaowsip</t>
+  </si>
+  <si>
+    <t>mightlistener</t>
+  </si>
+  <si>
+    <t>harlotchow</t>
+  </si>
+  <si>
+    <t>hatefulsock</t>
+  </si>
+  <si>
+    <t>dramaconcert</t>
+  </si>
+  <si>
+    <t>worthwhilecelery</t>
+  </si>
+  <si>
+    <t>undyinghysterical</t>
+  </si>
+  <si>
+    <t>economicsdestroy</t>
+  </si>
+  <si>
+    <t>lilypadeach</t>
+  </si>
+  <si>
+    <t>estimatebaboon</t>
+  </si>
+  <si>
+    <t>strawberriesexistence</t>
+  </si>
+  <si>
+    <t>interestedfrightened</t>
+  </si>
+  <si>
+    <t>pointpolecats</t>
+  </si>
+  <si>
+    <t>cluetutu</t>
+  </si>
+  <si>
+    <t>periodichighlands</t>
+  </si>
+  <si>
+    <t>atmvenal</t>
+  </si>
+  <si>
+    <t>romanticimply</t>
+  </si>
+  <si>
+    <t>refugeerowdy</t>
+  </si>
+  <si>
+    <t>jibeassumption</t>
+  </si>
+  <si>
+    <t>westcontent</t>
+  </si>
+  <si>
+    <t>bowerfloor</t>
+  </si>
+  <si>
+    <t>baronbattle</t>
+  </si>
+  <si>
+    <t>indelibletabasco</t>
+  </si>
+  <si>
+    <t>chewrevered</t>
+  </si>
+  <si>
+    <t>photographcharity</t>
+  </si>
+  <si>
+    <t>scholarlutchet</t>
+  </si>
+  <si>
+    <t>pebbletrout</t>
+  </si>
+  <si>
+    <t>quadricepsrecruit</t>
+  </si>
+  <si>
+    <t>feelingregime</t>
+  </si>
+  <si>
+    <t>suggestbefriend</t>
+  </si>
+  <si>
+    <t>pantsuittactless</t>
+  </si>
+  <si>
+    <t>avowdepth</t>
+  </si>
+  <si>
+    <t>handshakepledge</t>
+  </si>
+  <si>
+    <t>parrotentrance</t>
+  </si>
+  <si>
+    <t>curlingpaintbrush</t>
+  </si>
+  <si>
+    <t>requiredwasp</t>
+  </si>
+  <si>
+    <t>nounmaintain</t>
+  </si>
+  <si>
+    <t>breadfool</t>
+  </si>
+  <si>
+    <t>roletomato</t>
+  </si>
+  <si>
+    <t>britishglug</t>
+  </si>
+  <si>
+    <t>emissionsurvey</t>
+  </si>
+  <si>
+    <t>nestlepitch</t>
+  </si>
+  <si>
+    <t>soilbed</t>
+  </si>
+  <si>
+    <t>youngbrownies</t>
+  </si>
+  <si>
+    <t>tutormarry</t>
+  </si>
+  <si>
+    <t>burnetplease</t>
+  </si>
+  <si>
+    <t>culturalabcd</t>
+  </si>
+  <si>
+    <t>ratveteran</t>
+  </si>
+  <si>
+    <t>herschortle</t>
+  </si>
+  <si>
+    <t>fortiestend</t>
+  </si>
+  <si>
+    <t>junkyspread</t>
+  </si>
+  <si>
+    <t>lardfacebellbottoms</t>
+  </si>
+  <si>
+    <t>gratifiedeye</t>
+  </si>
+  <si>
+    <t>groveovershirt</t>
+  </si>
+  <si>
+    <t>exchangecover</t>
+  </si>
+  <si>
+    <t>weightpepperoni</t>
+  </si>
+  <si>
+    <t>porridgeoven</t>
+  </si>
+  <si>
+    <t>walrusfunny</t>
+  </si>
+  <si>
+    <t>loosenexpect</t>
+  </si>
+  <si>
+    <t>username123</t>
+  </si>
+  <si>
+    <t>abc456</t>
+  </si>
+  <si>
+    <t>Thor789</t>
+  </si>
+  <si>
+    <t>Kratos1122</t>
+  </si>
+  <si>
+    <t>Mimir1455</t>
+  </si>
+  <si>
+    <t>soyindication1788</t>
+  </si>
+  <si>
+    <t>covettraffic2121</t>
+  </si>
+  <si>
+    <t>wisetrampoline2454</t>
+  </si>
+  <si>
+    <t>lightsavanna2787</t>
+  </si>
+  <si>
+    <t>relievedcumin3120</t>
+  </si>
+  <si>
+    <t>realtorbee3453</t>
+  </si>
+  <si>
+    <t>lacrossedean3786</t>
+  </si>
+  <si>
+    <t>adoredreally4119</t>
+  </si>
+  <si>
+    <t>numberlesshealthy4452</t>
+  </si>
+  <si>
+    <t>relevantrapid4785</t>
+  </si>
+  <si>
+    <t>superbtranship5118</t>
+  </si>
+  <si>
+    <t>everydaynotable5451</t>
+  </si>
+  <si>
+    <t>outgoingabsent5784</t>
+  </si>
+  <si>
+    <t>wastescurse6117</t>
+  </si>
+  <si>
+    <t>slightlynearby6450</t>
+  </si>
+  <si>
+    <t>buttondownvoid6783</t>
+  </si>
+  <si>
+    <t>lethaltroupe7116</t>
+  </si>
+  <si>
+    <t>fardageangel7449</t>
+  </si>
+  <si>
+    <t>respectedregional7782</t>
+  </si>
+  <si>
+    <t>helplessstock8115</t>
+  </si>
+  <si>
+    <t>chestnutsfir8448</t>
+  </si>
+  <si>
+    <t>tundraformal8781</t>
+  </si>
+  <si>
+    <t>kerchingintolerant9114</t>
+  </si>
+  <si>
+    <t>salarymerchant9447</t>
+  </si>
+  <si>
+    <t>keyboardwomen9780</t>
+  </si>
+  <si>
+    <t>lawcross10113</t>
+  </si>
+  <si>
+    <t>grizzleddopey10446</t>
+  </si>
+  <si>
+    <t>bocceplink10779</t>
+  </si>
+  <si>
+    <t>buyerexxon11112</t>
+  </si>
+  <si>
+    <t>boregovern11445</t>
+  </si>
+  <si>
+    <t>discoverysatellite11778</t>
+  </si>
+  <si>
+    <t>dazzlingabject12111</t>
+  </si>
+  <si>
+    <t>washpeppermint12444</t>
+  </si>
+  <si>
+    <t>situationaccountant12777</t>
+  </si>
+  <si>
+    <t>fruitfulfrustrated13110</t>
+  </si>
+  <si>
+    <t>clayhover13443</t>
+  </si>
+  <si>
+    <t>silksledding13776</t>
+  </si>
+  <si>
+    <t>directorannoy14109</t>
+  </si>
+  <si>
+    <t>surmisepuffy14442</t>
+  </si>
+  <si>
+    <t>journalistplaintive14775</t>
+  </si>
+  <si>
+    <t>clashtomatoes15108</t>
+  </si>
+  <si>
+    <t>confidentpretty15441</t>
+  </si>
+  <si>
+    <t>evaluatecry15774</t>
+  </si>
+  <si>
+    <t>crispstamp16107</t>
+  </si>
+  <si>
+    <t>additionalchowder16440</t>
+  </si>
+  <si>
+    <t>troupetragedy16773</t>
+  </si>
+  <si>
+    <t>disabilitydigress17106</t>
+  </si>
+  <si>
+    <t>colleaguerepay17439</t>
+  </si>
+  <si>
+    <t>chideconsent17772</t>
+  </si>
+  <si>
+    <t>onerouswilling18105</t>
+  </si>
+  <si>
+    <t>ibexedeficient18438</t>
+  </si>
+  <si>
+    <t>motherfactor18771</t>
+  </si>
+  <si>
+    <t>stylefountain19104</t>
+  </si>
+  <si>
+    <t>visibilitypretend19437</t>
+  </si>
+  <si>
+    <t>tapersnail19770</t>
+  </si>
+  <si>
+    <t>pityingleaves20103</t>
+  </si>
+  <si>
+    <t>folkhissing20436</t>
+  </si>
+  <si>
+    <t>paintbrushtrapped20769</t>
+  </si>
+  <si>
+    <t>junkieextraneous21102</t>
+  </si>
+  <si>
+    <t>fanaticaltherapy21435</t>
+  </si>
+  <si>
+    <t>dogwatchlutz21768</t>
+  </si>
+  <si>
+    <t>fretfuloatmeal22101</t>
+  </si>
+  <si>
+    <t>vhsregard22434</t>
+  </si>
+  <si>
+    <t>slimeballstylish22767</t>
+  </si>
+  <si>
+    <t>cakerecently23100</t>
+  </si>
+  <si>
+    <t>veinscheat23433</t>
+  </si>
+  <si>
+    <t>marbledconcede23766</t>
+  </si>
+  <si>
+    <t>chemicalsailboat24099</t>
+  </si>
+  <si>
+    <t>willowcurlew24432</t>
+  </si>
+  <si>
+    <t>kneelyuletide24765</t>
+  </si>
+  <si>
+    <t>vanquishboo25098</t>
+  </si>
+  <si>
+    <t>collectionsesame25431</t>
+  </si>
+  <si>
+    <t>massiveguttural25764</t>
+  </si>
+  <si>
+    <t>evilprompt26097</t>
+  </si>
+  <si>
+    <t>minecraftminstrel26430</t>
+  </si>
+  <si>
+    <t>recklessmacabre26763</t>
+  </si>
+  <si>
+    <t>thoroughchristian27096</t>
+  </si>
+  <si>
+    <t>ulnasettlement27429</t>
+  </si>
+  <si>
+    <t>perceiveimprobable27762</t>
+  </si>
+  <si>
+    <t>snickeradorable28095</t>
+  </si>
+  <si>
+    <t>dishcareful28428</t>
+  </si>
+  <si>
+    <t>dripsympathy28761</t>
+  </si>
+  <si>
+    <t>screechingtoothsome29094</t>
+  </si>
+  <si>
+    <t>factoryamong29427</t>
+  </si>
+  <si>
+    <t>shortsuspenders29760</t>
+  </si>
+  <si>
+    <t>kefirexuberant30093</t>
+  </si>
+  <si>
+    <t>megadye30426</t>
+  </si>
+  <si>
+    <t>europeanblock30759</t>
+  </si>
+  <si>
+    <t>chamomilestoic31092</t>
+  </si>
+  <si>
+    <t>inborncurrant31425</t>
+  </si>
+  <si>
+    <t>whyjackstaff31758</t>
+  </si>
+  <si>
+    <t>ibmjungle32091</t>
+  </si>
+  <si>
+    <t>briskswindler32424</t>
+  </si>
+  <si>
+    <t>gulppermanent32757</t>
+  </si>
+  <si>
+    <t>womanlybuffalo33090</t>
+  </si>
+  <si>
+    <t>diversevalid33423</t>
+  </si>
+  <si>
+    <t>fascinatedcentral33756</t>
+  </si>
+  <si>
+    <t>energyrespect34089</t>
+  </si>
+  <si>
+    <t>maremotion34422</t>
+  </si>
+  <si>
+    <t>leaveshortbread34755</t>
+  </si>
+  <si>
+    <t>buzzardchalk35088</t>
+  </si>
+  <si>
+    <t>articlehall35421</t>
+  </si>
+  <si>
+    <t>chivetrident35754</t>
+  </si>
+  <si>
+    <t>thwackzabra36087</t>
+  </si>
+  <si>
+    <t>mirrorclash36420</t>
+  </si>
+  <si>
+    <t>obligationspending36753</t>
+  </si>
+  <si>
+    <t>jerkpurse37086</t>
+  </si>
+  <si>
+    <t>mournerhoglin37419</t>
+  </si>
+  <si>
+    <t>circularleap37752</t>
+  </si>
+  <si>
+    <t>sandstoneimpatience38085</t>
+  </si>
+  <si>
+    <t>probablydecide38418</t>
+  </si>
+  <si>
+    <t>darestair38751</t>
+  </si>
+  <si>
+    <t>teasever39084</t>
+  </si>
+  <si>
+    <t>boisterousquality39417</t>
+  </si>
+  <si>
+    <t>beetroottroop39750</t>
+  </si>
+  <si>
+    <t>foreignchicken40083</t>
+  </si>
+  <si>
+    <t>communitypanty40416</t>
+  </si>
+  <si>
+    <t>illusiongirl40749</t>
+  </si>
+  <si>
+    <t>koshershoemaker41082</t>
+  </si>
+  <si>
+    <t>godstupendous41415</t>
+  </si>
+  <si>
+    <t>ablazepaddle41748</t>
+  </si>
+  <si>
+    <t>athleticsideal42081</t>
+  </si>
+  <si>
+    <t>strategylollipop42414</t>
+  </si>
+  <si>
+    <t>victimfunctional42747</t>
+  </si>
+  <si>
+    <t>tulipfat43080</t>
+  </si>
+  <si>
+    <t>diamondglass43413</t>
+  </si>
+  <si>
+    <t>surfeityesterday43746</t>
+  </si>
+  <si>
+    <t>jodhpursbutt44079</t>
+  </si>
+  <si>
+    <t>helicopterdefinite44412</t>
+  </si>
+  <si>
+    <t>reverencesouth44745</t>
+  </si>
+  <si>
+    <t>amazonpromise45078</t>
+  </si>
+  <si>
+    <t>barredslovenly45411</t>
+  </si>
+  <si>
+    <t>dailytrek45744</t>
+  </si>
+  <si>
+    <t>wakeapple46077</t>
+  </si>
+  <si>
+    <t>maderetire46410</t>
+  </si>
+  <si>
+    <t>margindare46743</t>
+  </si>
+  <si>
+    <t>accidentalgruesome47076</t>
+  </si>
+  <si>
+    <t>pullovergrouch47409</t>
+  </si>
+  <si>
+    <t>pestergrumpy47742</t>
+  </si>
+  <si>
+    <t>crownscud48075</t>
+  </si>
+  <si>
+    <t>centuryleave48408</t>
+  </si>
+  <si>
+    <t>miaowsip48741</t>
+  </si>
+  <si>
+    <t>mightlistener49074</t>
+  </si>
+  <si>
+    <t>harlotchow49407</t>
+  </si>
+  <si>
+    <t>hatefulsock49740</t>
+  </si>
+  <si>
+    <t>dramaconcert50073</t>
+  </si>
+  <si>
+    <t>worthwhilecelery50406</t>
+  </si>
+  <si>
+    <t>undyinghysterical50739</t>
+  </si>
+  <si>
+    <t>economicsdestroy51072</t>
+  </si>
+  <si>
+    <t>lilypadeach51405</t>
+  </si>
+  <si>
+    <t>estimatebaboon51738</t>
+  </si>
+  <si>
+    <t>strawberriesexistence52071</t>
+  </si>
+  <si>
+    <t>interestedfrightened52404</t>
+  </si>
+  <si>
+    <t>pointpolecats52737</t>
+  </si>
+  <si>
+    <t>cluetutu53070</t>
+  </si>
+  <si>
+    <t>periodichighlands53403</t>
+  </si>
+  <si>
+    <t>atmvenal53736</t>
+  </si>
+  <si>
+    <t>romanticimply54069</t>
+  </si>
+  <si>
+    <t>refugeerowdy54402</t>
+  </si>
+  <si>
+    <t>jibeassumption54735</t>
+  </si>
+  <si>
+    <t>westcontent55068</t>
+  </si>
+  <si>
+    <t>bowerfloor55401</t>
+  </si>
+  <si>
+    <t>baronbattle55734</t>
+  </si>
+  <si>
+    <t>indelibletabasco56067</t>
+  </si>
+  <si>
+    <t>chewrevered56400</t>
+  </si>
+  <si>
+    <t>photographcharity56733</t>
+  </si>
+  <si>
+    <t>scholarlutchet57066</t>
+  </si>
+  <si>
+    <t>pebbletrout57399</t>
+  </si>
+  <si>
+    <t>quadricepsrecruit57732</t>
+  </si>
+  <si>
+    <t>feelingregime58065</t>
+  </si>
+  <si>
+    <t>suggestbefriend58398</t>
+  </si>
+  <si>
+    <t>pantsuittactless58731</t>
+  </si>
+  <si>
+    <t>avowdepth59064</t>
+  </si>
+  <si>
+    <t>handshakepledge59397</t>
+  </si>
+  <si>
+    <t>parrotentrance59730</t>
+  </si>
+  <si>
+    <t>curlingpaintbrush60063</t>
+  </si>
+  <si>
+    <t>requiredwasp60396</t>
+  </si>
+  <si>
+    <t>nounmaintain60729</t>
+  </si>
+  <si>
+    <t>breadfool61062</t>
+  </si>
+  <si>
+    <t>roletomato61395</t>
+  </si>
+  <si>
+    <t>britishglug61728</t>
+  </si>
+  <si>
+    <t>emissionsurvey62061</t>
+  </si>
+  <si>
+    <t>nestlepitch62394</t>
+  </si>
+  <si>
+    <t>soilbed62727</t>
+  </si>
+  <si>
+    <t>youngbrownies63060</t>
+  </si>
+  <si>
+    <t>tutormarry63393</t>
+  </si>
+  <si>
+    <t>burnetplease63726</t>
+  </si>
+  <si>
+    <t>culturalabcd64059</t>
+  </si>
+  <si>
+    <t>ratveteran64392</t>
+  </si>
+  <si>
+    <t>herschortle64725</t>
+  </si>
+  <si>
+    <t>fortiestend65058</t>
+  </si>
+  <si>
+    <t>junkyspread65391</t>
+  </si>
+  <si>
+    <t>lardfacebellbottoms65724</t>
+  </si>
+  <si>
+    <t>gratifiedeye66057</t>
+  </si>
+  <si>
+    <t>groveovershirt66390</t>
+  </si>
+  <si>
+    <t>exchangecover66723</t>
+  </si>
+  <si>
+    <t>weightpepperoni67056</t>
+  </si>
+  <si>
+    <t>porridgeoven67389</t>
+  </si>
+  <si>
+    <t>walrusfunny67722</t>
   </si>
 </sst>
 </file>
@@ -67,19 +1267,10 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -90,8 +1281,12 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,55 +1591,1656 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="E204" sqref="E204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>

--- a/OrangHRMDetails.xlsx
+++ b/OrangHRMDetails.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="408">
   <si>
     <t>abc</t>
   </si>
@@ -26,12 +26,6 @@
   </si>
   <si>
     <t>Mimir</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
   </si>
   <si>
     <t>soyindication</t>
@@ -1591,10 +1585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B205"/>
+  <dimension ref="A1:B204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="E204" sqref="E204"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1604,1643 +1598,1635 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B205" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
